--- a/2021/Janeiro/29-01-2021_FluxoDeCaixa.xlsx
+++ b/2021/Janeiro/29-01-2021_FluxoDeCaixa.xlsx
@@ -2,35 +2,44 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Documents\GitHub\ConnectFibra\2021\Janeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\2021\Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0342F7-1CCA-4A02-8F8D-65117F0FFA7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D46E9D-04DC-4546-B35E-FBA1B9056D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Caixa de Amanda" sheetId="1" r:id="rId1"/>
-    <sheet name="Caixa de Jessica" sheetId="3" r:id="rId2"/>
+    <sheet name="Caixa de Amanda" sheetId="3" r:id="rId1"/>
+    <sheet name="Caixa de Jessica" sheetId="1" r:id="rId2"/>
     <sheet name="Relatório do Caixa" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Relatório do Caixa'!$A$1:$B$19</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>FLUXO CAIXA DIÁRIO</t>
   </si>
@@ -93,6 +102,9 @@
   </si>
   <si>
     <t>Carregador HP notebook</t>
+  </si>
+  <si>
+    <t>Vale de Jenniffer</t>
   </si>
 </sst>
 </file>
@@ -247,9 +259,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,6 +572,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <f>219.9+9</f>
+        <v>228.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>665.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <f>SUM(B15:B20)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8">
+        <f>(B6+B7+B4)-B10</f>
+        <v>7.9000000000000057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -721,196 +922,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9">
-        <v>219.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9">
-        <v>665.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8">
-        <f>SUM(B15:B19)</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
-        <f>(B6+B7+B4)-B10</f>
-        <v>7.9000000000000057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM('Caixa de Jessica'!B4,'Caixa de Amanda'!B4,)</f>
+        <f>SUM('Caixa de Amanda'!B4,'Caixa de Jessica'!B4,)</f>
         <v>0</v>
       </c>
     </row>
@@ -952,8 +969,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="9">
-        <f>SUM('Caixa de Amanda'!B6,'Caixa de Jessica'!B6)</f>
-        <v>219.9</v>
+        <f>SUM('Caixa de Jessica'!B6,'Caixa de Amanda'!B6)</f>
+        <v>228.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,14 +978,14 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM('Caixa de Amanda'!B7,'Caixa de Jessica'!B7)</f>
+        <f>SUM('Caixa de Jessica'!B7,'Caixa de Amanda'!B7)</f>
         <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6">
-        <f>SUM('Caixa de Amanda'!D7,'Caixa de Jessica'!D7)</f>
+        <f>SUM('Caixa de Jessica'!D7,'Caixa de Amanda'!D7)</f>
         <v>0</v>
       </c>
     </row>
@@ -977,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <f>SUM('Caixa de Amanda'!B8,'Caixa de Jessica'!B8)</f>
+        <f>SUM('Caixa de Jessica'!B8,'Caixa de Amanda'!B8)</f>
         <v>0</v>
       </c>
     </row>
@@ -986,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('Caixa de Amanda'!B9,'Caixa de Jessica'!B9)</f>
+        <f>SUM('Caixa de Jessica'!B9,'Caixa de Amanda'!B9)</f>
         <v>665.34</v>
       </c>
     </row>
@@ -995,8 +1012,8 @@
         <v>14</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('Caixa de Amanda'!B10,'Caixa de Jessica'!B10)</f>
-        <v>212</v>
+        <f>SUM('Caixa de Jessica'!B10,'Caixa de Amanda'!B10)</f>
+        <v>221</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -1018,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="19">
-        <f>'Caixa de Amanda'!B19+'Caixa de Jessica'!B21</f>
+        <f>'Caixa de Jessica'!B19+'Caixa de Amanda'!B21</f>
         <v>8</v>
       </c>
     </row>
